--- a/newSave.xlsx
+++ b/newSave.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -28,31 +28,19 @@
     <t>created_at</t>
   </si>
   <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 123</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 10000000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + 2210000000000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + 2210000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + 4723</t>
+    <t xml:space="preserve"> + 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 12</t>
   </si>
 </sst>
 </file>
@@ -430,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -462,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -471,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>44394.44724537037</v>
+        <v>44396.4737962963</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -479,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -488,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>44394.44804398148</v>
+        <v>44396.48059027777</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -496,16 +484,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>44394.45259259259</v>
+        <v>44396.48228009259</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -513,16 +501,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>44394.49357638889</v>
+        <v>44396.48269675926</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,16 +518,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>44394.49408564815</v>
+        <v>44396.48280092592</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,16 +535,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>44394.495254629626</v>
+        <v>44396.48295138888</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,16 +552,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>44394.49628472222</v>
+        <v>44396.483715277776</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,16 +569,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
-        <v>44394.506377314814</v>
+        <v>44396.48399305556</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -598,16 +586,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>44394.50869212963</v>
+        <v>44396.48447916667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,16 +603,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>44394.50951388889</v>
+        <v>44396.4846412037</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,50 +620,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1201173455</v>
+        <v>1623083545</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>44394.51648148148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1201173455</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44394.516643518524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1201173455</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44396.43672453704</v>
+        <v>44396.484826388885</v>
       </c>
     </row>
   </sheetData>
